--- a/SakthiAdmin/server/files/bulkinsert.xlsx
+++ b/SakthiAdmin/server/files/bulkinsert.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dines\Downloads\combine\AdminServer\SakthiAdmin\server\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFF6A6DE-0D35-4C5D-8B09-40844087162E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADACAA40-9196-4C4F-9747-F9AFB199AA53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{81BC3FAC-FFD7-4852-B10E-A38E16CF885A}"/>
   </bookViews>
@@ -474,7 +474,7 @@
   <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -516,7 +516,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>1</v>
+        <v>101</v>
       </c>
       <c r="B2" t="s">
         <v>10</v>
